--- a/teaching/traditional_assets/database/data/bermuda/bermuda_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/bermuda/bermuda_insurance_prop_cas.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.03755</v>
+        <v>0.0447</v>
       </c>
       <c r="E2">
-        <v>-0.152</v>
+        <v>-0.0173</v>
       </c>
       <c r="F2">
-        <v>0.29</v>
+        <v>0.158</v>
       </c>
       <c r="G2">
-        <v>0.08255390675755107</v>
+        <v>0.1657882612833128</v>
       </c>
       <c r="H2">
-        <v>0.08255390675755107</v>
+        <v>0.1657882612833128</v>
       </c>
       <c r="I2">
-        <v>0.1543536502111706</v>
+        <v>0.1042532080535703</v>
       </c>
       <c r="J2">
-        <v>0.1430762935870149</v>
+        <v>0.09590159783962296</v>
       </c>
       <c r="K2">
-        <v>2249</v>
+        <v>1284.6</v>
       </c>
       <c r="L2">
-        <v>0.1159601126086643</v>
+        <v>0.06256142425372881</v>
       </c>
       <c r="M2">
-        <v>1058.38</v>
+        <v>1025.96</v>
       </c>
       <c r="N2">
-        <v>0.02529830767759824</v>
+        <v>0.0296605955478462</v>
       </c>
       <c r="O2">
-        <v>0.4706002667852379</v>
+        <v>0.7986610618091234</v>
       </c>
       <c r="P2">
-        <v>435.7</v>
+        <v>356.1</v>
       </c>
       <c r="Q2">
-        <v>0.01041447557127833</v>
+        <v>0.01029488291413704</v>
       </c>
       <c r="R2">
-        <v>0.1937305469097377</v>
+        <v>0.2772069126576366</v>
       </c>
       <c r="S2">
-        <v>622.6800000000001</v>
+        <v>669.86</v>
       </c>
       <c r="T2">
-        <v>0.5883331128706136</v>
+        <v>0.6529104448516512</v>
       </c>
       <c r="U2">
-        <v>3569.1</v>
+        <v>5491.1</v>
       </c>
       <c r="V2">
-        <v>0.08531169327851611</v>
+        <v>0.1587481931193987</v>
       </c>
       <c r="W2">
-        <v>0.04229997132205334</v>
+        <v>0.04710920770877945</v>
       </c>
       <c r="X2">
-        <v>0.05519573594962911</v>
+        <v>0.05377983220266427</v>
       </c>
       <c r="Y2">
-        <v>-0.01289576462757577</v>
+        <v>-0.006670624493884829</v>
       </c>
       <c r="Z2">
-        <v>0.5615647248055002</v>
+        <v>0.5551326072227815</v>
       </c>
       <c r="AA2">
-        <v>0.07267282649060963</v>
+        <v>0.04931907608570701</v>
       </c>
       <c r="AB2">
-        <v>0.0524630835496608</v>
+        <v>0.04940591377021815</v>
       </c>
       <c r="AC2">
-        <v>0.02057041532296887</v>
+        <v>-0.003111781364682605</v>
       </c>
       <c r="AD2">
-        <v>7985.5</v>
+        <v>8362.4</v>
       </c>
       <c r="AE2">
-        <v>752.6134780721544</v>
+        <v>577.7254634432907</v>
       </c>
       <c r="AF2">
-        <v>8738.113478072153</v>
+        <v>8940.12546344329</v>
       </c>
       <c r="AG2">
-        <v>5169.013478072153</v>
+        <v>3449.025463443289</v>
       </c>
       <c r="AH2">
-        <v>0.1727783816094139</v>
+        <v>0.2053778933155437</v>
       </c>
       <c r="AI2">
-        <v>0.2040094118733603</v>
+        <v>0.2010036635504302</v>
       </c>
       <c r="AJ2">
-        <v>0.1099672799898993</v>
+        <v>0.09067071044598426</v>
       </c>
       <c r="AK2">
-        <v>0.1316516321724878</v>
+        <v>0.08846756965278438</v>
       </c>
       <c r="AL2">
-        <v>472.9</v>
+        <v>428</v>
       </c>
       <c r="AM2">
-        <v>472.9</v>
+        <v>428</v>
       </c>
       <c r="AN2">
-        <v>2.854666023200529</v>
+        <v>4.047393181422183</v>
       </c>
       <c r="AO2">
-        <v>6.397335588919433</v>
+        <v>5.045327102803738</v>
       </c>
       <c r="AP2">
-        <v>1.847825076616138</v>
+        <v>1.66932485211086</v>
       </c>
       <c r="AQ2">
-        <v>6.397335588919433</v>
+        <v>5.045327102803738</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syncora Holdings Ltd. (OTCPK:SYCR.F)</t>
+          <t>Arch Capital Group Ltd. (NasdaqGS:ACGL)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,32 +727,41 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.143</v>
+      </c>
+      <c r="E3">
+        <v>0.113</v>
+      </c>
+      <c r="F3">
+        <v>0.0876</v>
+      </c>
       <c r="G3">
-        <v>1.413087934560327</v>
+        <v>0.2647797625088805</v>
       </c>
       <c r="H3">
-        <v>1.413087934560327</v>
+        <v>0.2647797625088805</v>
       </c>
       <c r="I3">
-        <v>1.231990129497988</v>
+        <v>0.1902996214100031</v>
       </c>
       <c r="J3">
-        <v>1.231990129497988</v>
+        <v>0.1747265542059298</v>
       </c>
       <c r="K3">
-        <v>-109.6</v>
+        <v>1188.4</v>
       </c>
       <c r="L3">
-        <v>-1.120654396728016</v>
+        <v>0.1507662640820055</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>75.5</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.005168507020270131</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.06353079771120834</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -761,79 +770,82 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>75.5</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>65.3</v>
+        <v>976.4</v>
       </c>
       <c r="V3">
-        <v>0.1562574778655181</v>
+        <v>0.06684146032571862</v>
       </c>
       <c r="W3">
-        <v>-0.1956444127097465</v>
+        <v>0.1145103631685954</v>
       </c>
       <c r="X3">
-        <v>0.049601556917777</v>
+        <v>0.05374536085799057</v>
       </c>
       <c r="Y3">
-        <v>-0.2452459696275235</v>
+        <v>0.06076500231060485</v>
       </c>
       <c r="Z3">
-        <v>0.1380660089901338</v>
+        <v>0.596121339755339</v>
       </c>
       <c r="AA3">
-        <v>0.1700959602950253</v>
+        <v>0.1041582275840728</v>
       </c>
       <c r="AB3">
-        <v>0.04958059158885647</v>
+        <v>0.04940591377021815</v>
       </c>
       <c r="AC3">
-        <v>0.1205153687061688</v>
+        <v>0.05475231381385461</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3135.7</v>
       </c>
       <c r="AE3">
-        <v>1.056826675483862</v>
+        <v>152.411320988956</v>
       </c>
       <c r="AF3">
-        <v>1.056826675483862</v>
+        <v>3288.111320988956</v>
       </c>
       <c r="AG3">
-        <v>-64.24317332451614</v>
+        <v>2311.711320988956</v>
       </c>
       <c r="AH3">
-        <v>0.002522519286462088</v>
+        <v>0.1837363650080799</v>
       </c>
       <c r="AI3">
-        <v>0.001707431972533929</v>
+        <v>0.1986064830403152</v>
       </c>
       <c r="AJ3">
-        <v>-0.1816539890617347</v>
+        <v>0.1366307182402511</v>
       </c>
       <c r="AK3">
-        <v>-0.1160342837462585</v>
+        <v>0.148381503974042</v>
       </c>
       <c r="AL3">
-        <v>79.59999999999999</v>
+        <v>136.2</v>
       </c>
       <c r="AM3">
-        <v>79.59999999999999</v>
+        <v>136.2</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.957121457995256</v>
       </c>
       <c r="AO3">
-        <v>1.508793969849246</v>
+        <v>11.00293685756241</v>
       </c>
       <c r="AP3">
-        <v>-0.5287503977326431</v>
+        <v>1.442835676562823</v>
       </c>
       <c r="AQ3">
-        <v>1.508793969849246</v>
+        <v>11.00293685756241</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +856,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arch Capital Group Ltd. (NasdaqGS:ACGL)</t>
+          <t>James River Group Holdings, Ltd. (NasdaqGS:JRVR)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,124 +865,121 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.109</v>
+        <v>0.0741</v>
       </c>
       <c r="E4">
-        <v>0.131</v>
-      </c>
-      <c r="F4">
-        <v>0.123</v>
+        <v>-0.0173</v>
       </c>
       <c r="G4">
-        <v>0.1537167072070005</v>
+        <v>0.09446618222470653</v>
       </c>
       <c r="H4">
-        <v>0.1537167072070005</v>
+        <v>0.09446618222470653</v>
       </c>
       <c r="I4">
-        <v>0.2545974642713781</v>
+        <v>0.09877472313525153</v>
       </c>
       <c r="J4">
-        <v>0.2285856631038656</v>
+        <v>0.07735369884085963</v>
       </c>
       <c r="K4">
-        <v>1446.4</v>
+        <v>45.6</v>
       </c>
       <c r="L4">
-        <v>0.2212737313935166</v>
+        <v>0.06372275013974288</v>
       </c>
       <c r="M4">
-        <v>101.1</v>
+        <v>39.65</v>
       </c>
       <c r="N4">
-        <v>0.005861005472590669</v>
+        <v>0.02635427052176803</v>
       </c>
       <c r="O4">
-        <v>0.06989767699115043</v>
+        <v>0.8695175438596491</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>37.1</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.02465935526753074</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.8135964912280702</v>
       </c>
       <c r="S4">
-        <v>101.1</v>
+        <v>2.549999999999997</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.06431273644388391</v>
       </c>
       <c r="U4">
-        <v>880.1</v>
+        <v>140</v>
       </c>
       <c r="V4">
-        <v>0.05102147296169187</v>
+        <v>0.09305417082087072</v>
       </c>
       <c r="W4">
-        <v>0.1686744177910462</v>
+        <v>0.05929778933680104</v>
       </c>
       <c r="X4">
-        <v>0.0549844624145561</v>
+        <v>0.05377983220266427</v>
       </c>
       <c r="Y4">
-        <v>0.1136899553764901</v>
+        <v>0.005517957134136768</v>
       </c>
       <c r="Z4">
-        <v>0.5701457176346402</v>
+        <v>1.296414293416055</v>
       </c>
       <c r="AA4">
-        <v>0.1303271369313435</v>
+        <v>0.1002824408258914</v>
       </c>
       <c r="AB4">
-        <v>0.0524630835496608</v>
+        <v>0.04878607782146094</v>
       </c>
       <c r="AC4">
-        <v>0.07786405338168274</v>
+        <v>0.05149636300443043</v>
       </c>
       <c r="AD4">
-        <v>2939.7</v>
+        <v>321.4</v>
       </c>
       <c r="AE4">
-        <v>165.863776486412</v>
+        <v>18.68404062207004</v>
       </c>
       <c r="AF4">
-        <v>3105.563776486412</v>
+        <v>340.08404062207</v>
       </c>
       <c r="AG4">
-        <v>2225.463776486412</v>
+        <v>200.08404062207</v>
       </c>
       <c r="AH4">
-        <v>0.1525688425103144</v>
+        <v>0.1843689596855558</v>
       </c>
       <c r="AI4">
-        <v>0.2047530356792056</v>
+        <v>0.2928013030983422</v>
       </c>
       <c r="AJ4">
-        <v>0.1142724769493884</v>
+        <v>0.1173799800149786</v>
       </c>
       <c r="AK4">
-        <v>0.1557655693421871</v>
+        <v>0.1958758362002617</v>
       </c>
       <c r="AL4">
-        <v>119.4</v>
+        <v>10.5</v>
       </c>
       <c r="AM4">
-        <v>119.4</v>
+        <v>10.5</v>
       </c>
       <c r="AN4">
-        <v>1.647998654557686</v>
+        <v>4.093224656138563</v>
       </c>
       <c r="AO4">
-        <v>13.95561139028476</v>
+        <v>6.704761904761905</v>
       </c>
       <c r="AP4">
-        <v>1.247597138965362</v>
+        <v>2.548192060902573</v>
       </c>
       <c r="AQ4">
-        <v>13.95561139028476</v>
+        <v>6.704761904761905</v>
       </c>
     </row>
     <row r="5">
@@ -981,7 +990,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hiscox Ltd (LSE:HSX)</t>
+          <t>White Mountains Insurance Group, Ltd. (NYSE:WTM)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -990,124 +999,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.09970000000000001</v>
+        <v>-0.101</v>
       </c>
       <c r="E5">
-        <v>-0.132</v>
-      </c>
-      <c r="F5">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="G5">
-        <v>0.07039909345231772</v>
+        <v>0.5440613026819923</v>
       </c>
       <c r="H5">
-        <v>0.07039909345231772</v>
+        <v>0.5440613026819923</v>
       </c>
       <c r="I5">
-        <v>0.06110740141520341</v>
+        <v>0.4453498552418436</v>
       </c>
       <c r="J5">
-        <v>0.05357067916637664</v>
+        <v>0.3063396652345898</v>
       </c>
       <c r="K5">
-        <v>125.1</v>
+        <v>280.4</v>
       </c>
       <c r="L5">
-        <v>0.04430043556783172</v>
+        <v>0.335727969348659</v>
       </c>
       <c r="M5">
-        <v>144.9</v>
+        <v>81.7</v>
       </c>
       <c r="N5">
-        <v>0.02663064453878811</v>
+        <v>0.02669149596523898</v>
       </c>
       <c r="O5">
-        <v>1.158273381294964</v>
+        <v>0.2913694721825963</v>
       </c>
       <c r="P5">
-        <v>115.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q5">
-        <v>0.02120894672033229</v>
+        <v>0.001045444150413277</v>
       </c>
       <c r="R5">
-        <v>0.9224620303756995</v>
+        <v>0.01141226818830243</v>
       </c>
       <c r="S5">
-        <v>29.5</v>
+        <v>78.5</v>
       </c>
       <c r="T5">
-        <v>0.2035886818495514</v>
+        <v>0.9608323133414932</v>
       </c>
       <c r="U5">
-        <v>914.5</v>
+        <v>131.9</v>
       </c>
       <c r="V5">
-        <v>0.1680726323721306</v>
+        <v>0.04309190107484727</v>
       </c>
       <c r="W5">
-        <v>0.05172413793103448</v>
+        <v>0.08780610008141791</v>
       </c>
       <c r="X5">
-        <v>0.05388482576378718</v>
+        <v>0.05034403770803728</v>
       </c>
       <c r="Y5">
-        <v>-0.002160687832752702</v>
+        <v>0.03746206237338064</v>
       </c>
       <c r="Z5">
-        <v>1.46544303355528</v>
+        <v>0.2823415821765866</v>
       </c>
       <c r="AA5">
-        <v>0.0785047785871916</v>
+        <v>0.08649242576577996</v>
       </c>
       <c r="AB5">
-        <v>0.052163393208847</v>
+        <v>0.04759846551295236</v>
       </c>
       <c r="AC5">
-        <v>0.0263413853783446</v>
+        <v>0.0388939602528276</v>
       </c>
       <c r="AD5">
-        <v>713.6</v>
+        <v>368.3</v>
       </c>
       <c r="AE5">
-        <v>68.69404571803548</v>
+        <v>33.71900451006134</v>
       </c>
       <c r="AF5">
-        <v>782.2940457180355</v>
+        <v>402.0190045100613</v>
       </c>
       <c r="AG5">
-        <v>-132.2059542819645</v>
+        <v>270.1190045100614</v>
       </c>
       <c r="AH5">
-        <v>0.1257021554430235</v>
+        <v>0.1160925230958267</v>
       </c>
       <c r="AI5">
-        <v>0.2520200851508273</v>
+        <v>0.1083253249192536</v>
       </c>
       <c r="AJ5">
-        <v>-0.02490272986114634</v>
+        <v>0.08109200342127482</v>
       </c>
       <c r="AK5">
-        <v>-0.06037920798172891</v>
+        <v>0.07546659131798603</v>
       </c>
       <c r="AL5">
-        <v>37.5</v>
+        <v>26.1</v>
       </c>
       <c r="AM5">
-        <v>37.5</v>
+        <v>26.1</v>
       </c>
       <c r="AN5">
-        <v>3.470817120622568</v>
+        <v>0.8855494109160855</v>
       </c>
       <c r="AO5">
-        <v>4.509333333333333</v>
+        <v>14.23754789272031</v>
       </c>
       <c r="AP5">
-        <v>-0.643025069464808</v>
+        <v>0.6494806552297699</v>
       </c>
       <c r="AQ5">
-        <v>4.509333333333333</v>
+        <v>14.23754789272031</v>
       </c>
     </row>
     <row r="6">
@@ -1118,7 +1124,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>White Mountains Insurance Group, Ltd. (NYSE:WTM)</t>
+          <t>Lancashire Holdings Limited (LSE:LRE)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1127,121 +1133,121 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.155</v>
+        <v>-0.0694</v>
       </c>
       <c r="E6">
-        <v>-0.09710000000000001</v>
+        <v>-0.246</v>
       </c>
       <c r="G6">
-        <v>-0.1991437646733876</v>
+        <v>0.2901147573988323</v>
       </c>
       <c r="H6">
-        <v>-0.1991437646733876</v>
+        <v>0.2901147573988323</v>
       </c>
       <c r="I6">
-        <v>0.3105527989974403</v>
+        <v>0.1616670022146165</v>
       </c>
       <c r="J6">
-        <v>0.2873182864074117</v>
+        <v>0.1532949610285024</v>
       </c>
       <c r="K6">
-        <v>216.1</v>
+        <v>52.8</v>
       </c>
       <c r="L6">
-        <v>0.298439442066013</v>
+        <v>0.1063015904972821</v>
       </c>
       <c r="M6">
-        <v>6.9</v>
+        <v>30.3</v>
       </c>
       <c r="N6">
-        <v>0.001963518397313679</v>
+        <v>0.01272681451612903</v>
       </c>
       <c r="O6">
-        <v>0.03192966219342897</v>
+        <v>0.5738636363636364</v>
       </c>
       <c r="P6">
-        <v>3.2</v>
+        <v>30.3</v>
       </c>
       <c r="Q6">
-        <v>0.0009106172277396773</v>
+        <v>0.01272681451612903</v>
       </c>
       <c r="R6">
-        <v>0.01480795927811199</v>
+        <v>0.5738636363636364</v>
       </c>
       <c r="S6">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.5362318840579711</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>82.2</v>
+        <v>496.5</v>
       </c>
       <c r="V6">
-        <v>0.02339148003756296</v>
+        <v>0.2085433467741935</v>
       </c>
       <c r="W6">
-        <v>0.07241957104557641</v>
+        <v>0.04710920770877945</v>
       </c>
       <c r="X6">
-        <v>0.0517913469736551</v>
+        <v>0.05083021918754554</v>
       </c>
       <c r="Y6">
-        <v>0.0206282240719213</v>
+        <v>-0.003721011478766099</v>
       </c>
       <c r="Z6">
-        <v>0.260407339611532</v>
+        <v>0.4018608414239482</v>
       </c>
       <c r="AA6">
-        <v>0.07481979058509829</v>
+        <v>0.06160324202496532</v>
       </c>
       <c r="AB6">
-        <v>0.05064382490032603</v>
+        <v>0.04777845404645251</v>
       </c>
       <c r="AC6">
-        <v>0.02417596568477225</v>
+        <v>0.01382478797851282</v>
       </c>
       <c r="AD6">
-        <v>238</v>
+        <v>344.6</v>
       </c>
       <c r="AE6">
-        <v>24.64359122976733</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>262.6435912297673</v>
+        <v>344.6</v>
       </c>
       <c r="AG6">
-        <v>180.4435912297673</v>
+        <v>-151.9</v>
       </c>
       <c r="AH6">
-        <v>0.06954234114268965</v>
+        <v>0.1264401555734938</v>
       </c>
       <c r="AI6">
-        <v>0.07878810762239838</v>
+        <v>0.1861897557812838</v>
       </c>
       <c r="AJ6">
-        <v>0.04884056359711398</v>
+        <v>-0.06815020862308761</v>
       </c>
       <c r="AK6">
-        <v>0.0554981613498183</v>
+        <v>-0.1121612641216864</v>
       </c>
       <c r="AL6">
-        <v>15.7</v>
+        <v>20.2</v>
       </c>
       <c r="AM6">
-        <v>15.7</v>
+        <v>20.2</v>
       </c>
       <c r="AN6">
-        <v>0.9264305177111716</v>
+        <v>4.238622386223863</v>
       </c>
       <c r="AO6">
-        <v>14.21656050955414</v>
+        <v>3.975247524752475</v>
       </c>
       <c r="AP6">
-        <v>0.702388443868304</v>
+        <v>-1.868388683886839</v>
       </c>
       <c r="AQ6">
-        <v>14.21656050955414</v>
+        <v>3.975247524752475</v>
       </c>
     </row>
     <row r="7">
@@ -1252,7 +1258,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>James River Group Holdings, Ltd. (NasdaqGS:JRVR)</t>
+          <t>Assured Guaranty Ltd. (NYSE:AGO)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1261,121 +1267,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.165</v>
+        <v>-0.147</v>
       </c>
       <c r="E7">
-        <v>-0.113</v>
+        <v>-0.213</v>
       </c>
       <c r="G7">
-        <v>0.1001703577512777</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1001703577512777</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.05583307461218785</v>
+        <v>0.4196289827207657</v>
       </c>
       <c r="J7">
-        <v>0.04556350077770233</v>
+        <v>0.3951413497768484</v>
       </c>
       <c r="K7">
-        <v>29.5</v>
+        <v>351</v>
       </c>
       <c r="L7">
-        <v>0.03350369108461101</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="M7">
-        <v>39.48</v>
+        <v>551</v>
       </c>
       <c r="N7">
-        <v>0.03166252305718181</v>
+        <v>0.216724354940214</v>
       </c>
       <c r="O7">
-        <v>1.338305084745763</v>
+        <v>1.56980056980057</v>
       </c>
       <c r="P7">
-        <v>36.6</v>
+        <v>71</v>
       </c>
       <c r="Q7">
-        <v>0.02935279493142995</v>
+        <v>0.02792636878539962</v>
       </c>
       <c r="R7">
-        <v>1.240677966101695</v>
+        <v>0.2022792022792023</v>
       </c>
       <c r="S7">
-        <v>2.880000000000003</v>
+        <v>480</v>
       </c>
       <c r="T7">
-        <v>0.07294832826747726</v>
+        <v>0.8711433756805808</v>
       </c>
       <c r="U7">
-        <v>256.3</v>
+        <v>223</v>
       </c>
       <c r="V7">
-        <v>0.2055497634132649</v>
+        <v>0.08771239773442416</v>
       </c>
       <c r="W7">
-        <v>0.04229997132205334</v>
+        <v>0.05276608538785327</v>
       </c>
       <c r="X7">
-        <v>0.05530930577689208</v>
+        <v>0.06556523395112177</v>
       </c>
       <c r="Y7">
-        <v>-0.01300933445483874</v>
+        <v>-0.01279914856326849</v>
       </c>
       <c r="Z7">
-        <v>1.594978990863098</v>
+        <v>0.1248137561749976</v>
       </c>
       <c r="AA7">
-        <v>0.07267282649060963</v>
+        <v>0.04931907608570701</v>
       </c>
       <c r="AB7">
-        <v>0.05210241116764076</v>
+        <v>0.05243085745038961</v>
       </c>
       <c r="AC7">
-        <v>0.02057041532296887</v>
+        <v>-0.003111781364682605</v>
       </c>
       <c r="AD7">
-        <v>219.4</v>
+        <v>1270</v>
       </c>
       <c r="AE7">
-        <v>18.44488901984302</v>
+        <v>130.6031439770785</v>
       </c>
       <c r="AF7">
-        <v>237.844889019843</v>
+        <v>1400.603143977079</v>
       </c>
       <c r="AG7">
-        <v>-18.45511098015697</v>
+        <v>1177.603143977079</v>
       </c>
       <c r="AH7">
-        <v>0.1601924281934095</v>
+        <v>0.3552122818153199</v>
       </c>
       <c r="AI7">
-        <v>0.236227935021236</v>
+        <v>0.1746910041349738</v>
       </c>
       <c r="AJ7">
-        <v>-0.01502314930455042</v>
+        <v>0.3165597173980062</v>
       </c>
       <c r="AK7">
-        <v>-0.02458895030816612</v>
+        <v>0.1510792945099479</v>
       </c>
       <c r="AL7">
-        <v>11.2</v>
+        <v>86</v>
       </c>
       <c r="AM7">
-        <v>11.2</v>
+        <v>86</v>
       </c>
       <c r="AN7">
-        <v>3.845749342681858</v>
+        <v>66.84210526315789</v>
       </c>
       <c r="AO7">
-        <v>4.366071428571429</v>
+        <v>4.825581395348837</v>
       </c>
       <c r="AP7">
-        <v>-0.3234901135873264</v>
+        <v>61.97911284089887</v>
       </c>
       <c r="AQ7">
-        <v>4.366071428571429</v>
+        <v>4.825581395348837</v>
       </c>
     </row>
     <row r="8">
@@ -1386,7 +1392,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Assured Guaranty Ltd. (NYSE:AGO)</t>
+          <t>AXIS Capital Holdings Limited (NYSE:AXS)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1395,121 +1401,121 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.107</v>
-      </c>
-      <c r="E8">
-        <v>-0.172</v>
+        <v>0.046</v>
+      </c>
+      <c r="F8">
+        <v>0.158</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.1032456802464351</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1032456802464351</v>
       </c>
       <c r="I8">
-        <v>0.5926496432552258</v>
+        <v>0.004427803670789938</v>
       </c>
       <c r="J8">
-        <v>0.4899422109346481</v>
+        <v>0.004427803670789938</v>
       </c>
       <c r="K8">
-        <v>353</v>
+        <v>-123.9</v>
       </c>
       <c r="L8">
-        <v>0.3879120879120879</v>
+        <v>-0.02527591342132643</v>
       </c>
       <c r="M8">
-        <v>545</v>
+        <v>149.71</v>
       </c>
       <c r="N8">
-        <v>0.1163113302174702</v>
+        <v>0.03523500200051779</v>
       </c>
       <c r="O8">
-        <v>1.543909348441926</v>
+        <v>-1.208313155770783</v>
       </c>
       <c r="P8">
-        <v>72</v>
+        <v>140.3</v>
       </c>
       <c r="Q8">
-        <v>0.01536590050579423</v>
+        <v>0.03302031113935372</v>
       </c>
       <c r="R8">
-        <v>0.2039660056657224</v>
+        <v>-1.132364810330912</v>
       </c>
       <c r="S8">
-        <v>473</v>
+        <v>9.409999999999997</v>
       </c>
       <c r="T8">
-        <v>0.8678899082568807</v>
+        <v>0.06285485271524946</v>
       </c>
       <c r="U8">
-        <v>229</v>
+        <v>1000.8</v>
       </c>
       <c r="V8">
-        <v>0.04887210021981774</v>
+        <v>0.2355433170938361</v>
       </c>
       <c r="W8">
-        <v>0.05362296825155704</v>
+        <v>-0.02575401691991104</v>
       </c>
       <c r="X8">
-        <v>0.05869826971147026</v>
+        <v>0.05785213904488483</v>
       </c>
       <c r="Y8">
-        <v>-0.005075301459913216</v>
+        <v>-0.08360615596479587</v>
       </c>
       <c r="Z8">
-        <v>0.1160204606175027</v>
+        <v>0.7860425064441261</v>
       </c>
       <c r="AA8">
-        <v>0.05684332098859553</v>
+        <v>0.003480441895430226</v>
       </c>
       <c r="AB8">
-        <v>0.0536714949862936</v>
+        <v>0.04997603056394256</v>
       </c>
       <c r="AC8">
-        <v>0.003171826002301932</v>
+        <v>-0.04649558866851234</v>
       </c>
       <c r="AD8">
-        <v>1324</v>
+        <v>1309.4</v>
       </c>
       <c r="AE8">
-        <v>93.44412318872205</v>
+        <v>127.976745930774</v>
       </c>
       <c r="AF8">
-        <v>1417.444123188722</v>
+        <v>1437.376745930774</v>
       </c>
       <c r="AG8">
-        <v>1188.444123188722</v>
+        <v>436.5767459307742</v>
       </c>
       <c r="AH8">
-        <v>0.2322481813600278</v>
+        <v>0.2527799490166202</v>
       </c>
       <c r="AI8">
-        <v>0.175655733102543</v>
+        <v>0.2144289726369024</v>
       </c>
       <c r="AJ8">
-        <v>0.2023178352906307</v>
+        <v>0.09317659004709197</v>
       </c>
       <c r="AK8">
-        <v>0.1515786739266219</v>
+        <v>0.07655914532966937</v>
       </c>
       <c r="AL8">
-        <v>90</v>
+        <v>78.2</v>
       </c>
       <c r="AM8">
-        <v>90</v>
+        <v>78.2</v>
       </c>
       <c r="AN8">
-        <v>147.1111111111111</v>
+        <v>11.65983971504898</v>
       </c>
       <c r="AO8">
-        <v>6.1</v>
+        <v>0.3593350383631714</v>
       </c>
       <c r="AP8">
-        <v>132.0493470209691</v>
+        <v>3.88759346331945</v>
       </c>
       <c r="AQ8">
-        <v>6.1</v>
+        <v>0.3593350383631714</v>
       </c>
     </row>
     <row r="9">
@@ -1520,7 +1526,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Argo Group International Holdings, Ltd. (NYSE:ARGO)</t>
+          <t>Syncora Holdings Ltd. (OTCPK:SYCR.F)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1529,121 +1535,109 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0453</v>
-      </c>
-      <c r="E9">
-        <v>-0.214</v>
+        <v>-0.316</v>
       </c>
       <c r="G9">
-        <v>0.06944591588091958</v>
+        <v>-2.071611253196931</v>
       </c>
       <c r="H9">
-        <v>0.06944591588091958</v>
+        <v>-2.071611253196931</v>
       </c>
       <c r="I9">
-        <v>0.03431733810383691</v>
+        <v>-2.122829187043129</v>
       </c>
       <c r="J9">
-        <v>0.03431733810383691</v>
+        <v>-2.122829187043129</v>
       </c>
       <c r="K9">
-        <v>51.3</v>
+        <v>-104.9</v>
       </c>
       <c r="L9">
-        <v>0.02717448882296853</v>
+        <v>-13.41432225063939</v>
       </c>
       <c r="M9">
-        <v>43.7</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.01936112711000842</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.851851851851852</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>42</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.018607948252182</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.8187134502923977</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="T9">
-        <v>0.03890160183066368</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>145.1</v>
+        <v>452.7</v>
       </c>
       <c r="V9">
-        <v>0.06428603074741926</v>
+        <v>15.99646643109541</v>
       </c>
       <c r="W9">
-        <v>0.02821626973213795</v>
+        <v>-0.16550962448722</v>
       </c>
       <c r="X9">
-        <v>0.06074173299246717</v>
+        <v>0.04622346613233624</v>
       </c>
       <c r="Y9">
-        <v>-0.03252546326032922</v>
+        <v>-0.2117330906195562</v>
       </c>
       <c r="Z9">
-        <v>0.8372069173886562</v>
+        <v>0.01277584425784772</v>
       </c>
       <c r="AA9">
-        <v>0.02873071284689756</v>
+        <v>-0.0271209350796765</v>
       </c>
       <c r="AB9">
-        <v>0.05386947804809191</v>
+        <v>0.04599784306190821</v>
       </c>
       <c r="AC9">
-        <v>-0.02513876520119435</v>
+        <v>-0.07311877814158471</v>
       </c>
       <c r="AD9">
-        <v>698.8</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>136.0786456378835</v>
+        <v>0.5026212133863301</v>
       </c>
       <c r="AF9">
-        <v>834.8786456378834</v>
+        <v>0.5026212133863301</v>
       </c>
       <c r="AG9">
-        <v>689.7786456378834</v>
+        <v>-452.1973787866137</v>
       </c>
       <c r="AH9">
-        <v>0.2700143633966288</v>
+        <v>0.01745053721543689</v>
       </c>
       <c r="AI9">
-        <v>0.3060093025955145</v>
+        <v>0.001104412916907072</v>
       </c>
       <c r="AJ9">
-        <v>0.2340709369416783</v>
+        <v>1.066761441368209</v>
       </c>
       <c r="AK9">
-        <v>0.2670270779772381</v>
+        <v>-188.2100167380403</v>
       </c>
       <c r="AL9">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>5.765676567656765</v>
-      </c>
-      <c r="AO9">
-        <v>2.188059701492537</v>
+        <v>-0</v>
       </c>
       <c r="AP9">
-        <v>5.691242950807619</v>
-      </c>
-      <c r="AQ9">
-        <v>2.188059701492537</v>
+        <v>28.802380814434</v>
       </c>
     </row>
     <row r="10">
@@ -1654,7 +1648,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AXIS Capital Holdings Limited (NYSE:AXS)</t>
+          <t>Argo Group International Holdings, Ltd. (NYSE:ARGO)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1663,124 +1657,118 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.0298</v>
-      </c>
-      <c r="E10">
-        <v>-0.301</v>
-      </c>
-      <c r="F10">
-        <v>0.328</v>
+        <v>0.0447</v>
       </c>
       <c r="G10">
-        <v>0.02508459903989927</v>
+        <v>0.03604619930163846</v>
       </c>
       <c r="H10">
-        <v>0.02508459903989927</v>
+        <v>0.03604619930163846</v>
       </c>
       <c r="I10">
-        <v>0.0269568584489553</v>
+        <v>-0.05638770735438781</v>
       </c>
       <c r="J10">
-        <v>0.0269568584489553</v>
+        <v>-0.05638770735438781</v>
       </c>
       <c r="K10">
-        <v>136.4</v>
+        <v>-158.1</v>
       </c>
       <c r="L10">
-        <v>0.02683560242386086</v>
+        <v>-0.08493150684931507</v>
       </c>
       <c r="M10">
-        <v>147.1</v>
+        <v>42.8</v>
       </c>
       <c r="N10">
-        <v>0.02951622288661036</v>
+        <v>0.02823777792439137</v>
       </c>
       <c r="O10">
-        <v>1.078445747800587</v>
+        <v>-0.2707147375079064</v>
       </c>
       <c r="P10">
-        <v>136.3</v>
+        <v>42.8</v>
       </c>
       <c r="Q10">
-        <v>0.02734915825591428</v>
+        <v>0.02823777792439137</v>
       </c>
       <c r="R10">
-        <v>0.999266862170088</v>
+        <v>-0.2707147375079064</v>
       </c>
       <c r="S10">
-        <v>10.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.07341944255608436</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>763.8</v>
+        <v>300.4</v>
       </c>
       <c r="V10">
-        <v>0.1532596263820053</v>
+        <v>0.1981922544039058</v>
       </c>
       <c r="W10">
-        <v>0.03032930869632891</v>
+        <v>-0.08350058096545895</v>
       </c>
       <c r="X10">
-        <v>0.05995982130756633</v>
+        <v>0.05923984145681353</v>
       </c>
       <c r="Y10">
-        <v>-0.02963051261123742</v>
+        <v>-0.1427404224222725</v>
       </c>
       <c r="Z10">
-        <v>0.8907319298120157</v>
+        <v>0.8223158957072709</v>
       </c>
       <c r="AA10">
-        <v>0.02401133454790729</v>
+        <v>-0.04636850808000288</v>
       </c>
       <c r="AB10">
-        <v>0.05364415602515625</v>
+        <v>0.05033719214398416</v>
       </c>
       <c r="AC10">
-        <v>-0.02963282147724896</v>
+        <v>-0.09670570022398703</v>
       </c>
       <c r="AD10">
-        <v>1504</v>
+        <v>456.9</v>
       </c>
       <c r="AE10">
-        <v>210.91839937825</v>
+        <v>113.8285862009645</v>
       </c>
       <c r="AF10">
-        <v>1714.91839937825</v>
+        <v>570.7285862009644</v>
       </c>
       <c r="AG10">
-        <v>951.1183993782499</v>
+        <v>270.3285862009644</v>
       </c>
       <c r="AH10">
-        <v>0.2560107617919278</v>
+        <v>0.2735433122300941</v>
       </c>
       <c r="AI10">
-        <v>0.2348939948327294</v>
+        <v>0.2343634554205523</v>
       </c>
       <c r="AJ10">
-        <v>0.1602607418413834</v>
+        <v>0.1513573681236404</v>
       </c>
       <c r="AK10">
-        <v>0.1454972804526163</v>
+        <v>0.1266277714043673</v>
       </c>
       <c r="AL10">
-        <v>66.2</v>
+        <v>29.6</v>
       </c>
       <c r="AM10">
-        <v>66.2</v>
+        <v>29.6</v>
       </c>
       <c r="AN10">
-        <v>7.061032863849765</v>
+        <v>-9.029644268774703</v>
       </c>
       <c r="AO10">
-        <v>2.280966767371601</v>
+        <v>-3.287162162162162</v>
       </c>
       <c r="AP10">
-        <v>4.465344598019953</v>
+        <v>-5.342462177884673</v>
       </c>
       <c r="AQ10">
-        <v>2.280966767371601</v>
+        <v>-3.287162162162162</v>
       </c>
     </row>
     <row r="11">
@@ -1791,7 +1779,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lancashire Holdings Limited (LSE:LRE)</t>
+          <t>Hiscox Ltd (LSE:HSX)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1800,121 +1788,121 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.0859</v>
-      </c>
-      <c r="E11">
-        <v>-0.6659999999999999</v>
+        <v>0.0973</v>
+      </c>
+      <c r="F11">
+        <v>0.5489999999999999</v>
       </c>
       <c r="G11">
-        <v>0.1257206208425721</v>
+        <v>0.03286368562738174</v>
       </c>
       <c r="H11">
-        <v>0.1257206208425721</v>
+        <v>0.03286368562738174</v>
       </c>
       <c r="I11">
-        <v>0.04702031896330055</v>
+        <v>-0.06653148271160368</v>
       </c>
       <c r="J11">
-        <v>0.04702031896330055</v>
+        <v>-0.06653148271160368</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>-246.7</v>
       </c>
       <c r="L11">
-        <v>0.001773835920177384</v>
+        <v>-0.08624969408803271</v>
       </c>
       <c r="M11">
-        <v>30.2</v>
+        <v>55.3</v>
       </c>
       <c r="N11">
-        <v>0.0148046472866317</v>
+        <v>0.01176395507147719</v>
       </c>
       <c r="O11">
-        <v>37.75</v>
+        <v>-0.224158897446291</v>
       </c>
       <c r="P11">
-        <v>30.2</v>
+        <v>31.4</v>
       </c>
       <c r="Q11">
-        <v>0.0148046472866317</v>
+        <v>0.006679714091218515</v>
       </c>
       <c r="R11">
-        <v>37.75</v>
+        <v>-0.1272800972841508</v>
       </c>
       <c r="S11">
+        <v>23.9</v>
+      </c>
+      <c r="T11">
+        <v>0.4321880650994575</v>
+      </c>
+      <c r="U11">
+        <v>1769.4</v>
+      </c>
+      <c r="V11">
+        <v>0.3764040163376446</v>
+      </c>
+      <c r="W11">
+        <v>-0.1063041323738527</v>
+      </c>
+      <c r="X11">
+        <v>0.05450150763964885</v>
+      </c>
+      <c r="Y11">
+        <v>-0.1608056400135016</v>
+      </c>
+      <c r="Z11">
+        <v>1.349325408057364</v>
+      </c>
+      <c r="AA11">
+        <v>-0.08977262005849611</v>
+      </c>
+      <c r="AB11">
+        <v>0.05001928207823429</v>
+      </c>
+      <c r="AC11">
+        <v>-0.1397919021367304</v>
+      </c>
+      <c r="AD11">
+        <v>1156.1</v>
+      </c>
+      <c r="AE11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>232.8</v>
-      </c>
-      <c r="V11">
-        <v>0.1141232413353596</v>
-      </c>
-      <c r="W11">
-        <v>0.0006939625260235948</v>
-      </c>
-      <c r="X11">
-        <v>0.05519573594962911</v>
-      </c>
-      <c r="Y11">
-        <v>-0.05450177342360552</v>
-      </c>
-      <c r="Z11">
-        <v>0.3471716569735506</v>
-      </c>
-      <c r="AA11">
-        <v>0.01632412204591391</v>
-      </c>
-      <c r="AB11">
-        <v>0.0530050337685834</v>
-      </c>
-      <c r="AC11">
-        <v>-0.03668091172266949</v>
-      </c>
-      <c r="AD11">
-        <v>348</v>
-      </c>
-      <c r="AE11">
-        <v>33.46918073775726</v>
-      </c>
       <c r="AF11">
-        <v>381.4691807377573</v>
+        <v>1156.1</v>
       </c>
       <c r="AG11">
-        <v>148.6691807377572</v>
+        <v>-613.3000000000002</v>
       </c>
       <c r="AH11">
-        <v>0.1575427587715182</v>
+        <v>0.1973911113387628</v>
       </c>
       <c r="AI11">
-        <v>0.2538779482688824</v>
+        <v>0.3223207315713171</v>
       </c>
       <c r="AJ11">
-        <v>0.06792985209068944</v>
+        <v>-0.1500428134556575</v>
       </c>
       <c r="AK11">
-        <v>0.11708362668826</v>
+        <v>-0.3374601078463741</v>
       </c>
       <c r="AL11">
-        <v>19.8</v>
+        <v>41.2</v>
       </c>
       <c r="AM11">
-        <v>19.8</v>
+        <v>41.2</v>
       </c>
       <c r="AN11">
-        <v>11.87713310580205</v>
+        <v>-6.539027149321266</v>
       </c>
       <c r="AO11">
-        <v>1.232323232323232</v>
+        <v>-4.618932038834951</v>
       </c>
       <c r="AP11">
-        <v>5.074033472278404</v>
+        <v>3.468891402714933</v>
       </c>
       <c r="AQ11">
-        <v>1.232323232323232</v>
+        <v>-4.618932038834951</v>
       </c>
     </row>
   </sheetData>
